--- a/Lab2/1150080068_CNPM1_TranMinhNhat_Lab2,3.xlsx
+++ b/Lab2/1150080068_CNPM1_TranMinhNhat_Lab2,3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Buoi2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61533813-DF8F-4D7C-BDAD-2891C7C7BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BA7F75-968C-4965-986B-143EC786E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab2_bài1" sheetId="1" r:id="rId1"/>
@@ -970,6 +970,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,20 +1011,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,28 +1023,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1326,37 +1326,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1368,26 +1368,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -1529,10 +1529,10 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -1544,10 +1544,10 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="1">
         <v>40</v>
       </c>
@@ -1559,10 +1559,10 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="1">
         <v>450</v>
       </c>
@@ -1574,10 +1574,10 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="1">
         <v>1450</v>
       </c>
@@ -1587,11 +1587,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -1600,6 +1595,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1629,37 +1629,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1671,26 +1671,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -1808,10 +1808,10 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="1">
         <v>21321</v>
       </c>
@@ -1823,10 +1823,10 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="1">
         <v>213213</v>
       </c>
@@ -1838,10 +1838,10 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="1">
         <v>2132132132</v>
       </c>
@@ -1853,10 +1853,10 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1">
         <v>21321321321</v>
       </c>
@@ -1866,11 +1866,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1879,6 +1874,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1904,37 +1904,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1946,26 +1946,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2124,10 +2124,10 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="6">
         <v>0.33333333333333298</v>
       </c>
@@ -2139,10 +2139,10 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="9">
         <v>0.41666666666666702</v>
       </c>
@@ -2154,10 +2154,10 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="9">
         <v>0.66597222222222197</v>
       </c>
@@ -2169,10 +2169,10 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="9">
         <v>0.66666666666666696</v>
       </c>
@@ -2184,10 +2184,10 @@
       <c r="A26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="9">
         <v>0.77083333333333304</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="A27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="9">
         <v>0.83333333333333304</v>
       </c>
@@ -2212,21 +2212,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2253,37 +2253,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -2295,26 +2295,26 @@
       <c r="J2" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2460,10 +2460,10 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="28">
         <v>30</v>
       </c>
@@ -2475,10 +2475,10 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="28">
         <v>50</v>
       </c>
@@ -2490,10 +2490,10 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="28">
         <v>120</v>
       </c>
@@ -2505,10 +2505,10 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="28">
         <v>180</v>
       </c>
@@ -2520,10 +2520,10 @@
       <c r="A25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="28">
         <v>220</v>
       </c>
@@ -2533,6 +2533,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A1:B1"/>
@@ -2542,11 +2547,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2572,36 +2572,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -2612,26 +2612,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="32" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="8">
@@ -2763,10 +2763,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       <c r="B21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       <c r="B24" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="32" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       <c r="B27" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="32" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2842,14 +2842,14 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3015,36 +3015,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -3055,26 +3055,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="32" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="8">
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       <c r="B20" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       <c r="B23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="32" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="B26" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="32" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3291,14 +3291,14 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927D3045-16FF-41A1-A7E1-A72CC8B0E7C9}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3464,36 +3464,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -3504,26 +3504,26 @@
       <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="3">
         <v>46028</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="32" t="s">
         <v>111</v>
       </c>
       <c r="F13" s="8">
@@ -3623,7 +3623,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="35" t="s">
         <v>183</v>
       </c>
       <c r="F15" s="8">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="35" t="s">
         <v>185</v>
       </c>
       <c r="F16" s="8">
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       <c r="B22" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       <c r="B25" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="32" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3728,14 +3728,14 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="34" t="s">
         <v>33</v>
       </c>
     </row>
